--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2084967.651894209</v>
+        <v>2084967.651894208</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1454361.273156615</v>
+        <v>1190652.103231223</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>329.6382101315364</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>178.0242989177829</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.56386682245585</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>46.80807769362092</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>122.4523652507637</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>109.0522721046904</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>107.8862013326869</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>218.9369279848392</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>36.31606325004019</v>
       </c>
       <c r="I8" t="n">
-        <v>133.5262229738439</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>81.25819606329402</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>269.88545101545</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>175.0698676614145</v>
+        <v>106.7061843359092</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>99.0911090756187</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>113.6635323293995</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.7438101404423</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>26.97444673955056</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>144.3735853367717</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>76.31783716349541</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,10 +2293,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>18.85325094582597</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>59.652474744964</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>212.091772816597</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>89.40248108028744</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>46.25307783771848</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>192.5226247655709</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,16 +3424,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>136.5026536665328</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>24.82503247366802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.62338840723066</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3910,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,16 +3952,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>63.17794444906085</v>
       </c>
       <c r="V43" t="n">
-        <v>195.0857866925083</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3992,10 +3992,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,7 +4144,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>42.93943942157717</v>
       </c>
       <c r="W46" t="n">
-        <v>79.71208056177232</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1584.823100673951</v>
+        <v>1542.271337979254</v>
       </c>
       <c r="C2" t="n">
-        <v>1215.860583733539</v>
+        <v>1542.271337979254</v>
       </c>
       <c r="D2" t="n">
-        <v>1215.860583733539</v>
+        <v>1184.005639372503</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>798.217386774259</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>387.2314819846515</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y2" t="n">
-        <v>1584.823100673951</v>
+        <v>1928.871178043375</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>664.9331591332467</v>
+        <v>680.8480976472212</v>
       </c>
       <c r="C4" t="n">
-        <v>664.9331591332467</v>
+        <v>680.8480976472212</v>
       </c>
       <c r="D4" t="n">
-        <v>664.9331591332467</v>
+        <v>530.7314582348854</v>
       </c>
       <c r="E4" t="n">
-        <v>517.0200655508536</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>680.8480976472212</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>680.8480976472212</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>680.8480976472212</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>680.8480976472212</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>680.8480976472212</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>680.8480976472212</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1487.242648509747</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1320.24122488254</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y5" t="n">
-        <v>1873.842488573869</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>344.9043780966899</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>344.9043780966899</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>344.9043780966899</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>344.9043780966899</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>344.9043780966899</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>513.8405610245968</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>940.9219833362306</v>
+        <v>919.5755868835429</v>
       </c>
       <c r="C8" t="n">
-        <v>940.9219833362306</v>
+        <v>919.5755868835429</v>
       </c>
       <c r="D8" t="n">
-        <v>940.9219833362306</v>
+        <v>919.5755868835429</v>
       </c>
       <c r="E8" t="n">
-        <v>940.9219833362306</v>
+        <v>919.5755868835429</v>
       </c>
       <c r="F8" t="n">
-        <v>529.9360785466231</v>
+        <v>508.5896820939353</v>
       </c>
       <c r="G8" t="n">
-        <v>516.012674485214</v>
+        <v>90.62587399212219</v>
       </c>
       <c r="H8" t="n">
-        <v>188.8179545212168</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473039</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>919.5755868835429</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="U10" t="n">
-        <v>455.5174175241617</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="V10" t="n">
-        <v>200.8329293182748</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="W10" t="n">
-        <v>200.8329293182748</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>646.0499982839149</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>232.333204354932</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>479.098332261396</v>
+        <v>796.6263613937374</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.946494673699</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>498.168852875299</v>
+        <v>1167.346830765682</v>
       </c>
       <c r="W13" t="n">
-        <v>208.7516828383384</v>
+        <v>877.929660728721</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7516828383384</v>
+        <v>877.929660728721</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>877.929660728721</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,16 +5261,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,13 +5279,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>232.333204354932</v>
+        <v>330.851444007176</v>
       </c>
       <c r="L15" t="n">
-        <v>479.098332261396</v>
+        <v>560.8145498755251</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1329.182696267987</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1673.703351905604</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2343.167113208264</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.1954542207687</v>
+        <v>843.1711433963917</v>
       </c>
       <c r="C16" t="n">
-        <v>560.1954542207687</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1287.749137750416</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1063.963722539922</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1063.963722539922</v>
       </c>
       <c r="V16" t="n">
-        <v>560.1954542207687</v>
+        <v>1063.963722539922</v>
       </c>
       <c r="W16" t="n">
-        <v>560.1954542207687</v>
+        <v>1063.963722539922</v>
       </c>
       <c r="X16" t="n">
-        <v>560.1954542207687</v>
+        <v>1063.963722539922</v>
       </c>
       <c r="Y16" t="n">
-        <v>560.1954542207687</v>
+        <v>843.1711433963917</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>157.1113754056636</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>403.8765033121276</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>724.2118228418294</v>
+        <v>1493.870190757661</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1823.732818421694</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>4833.607657115756</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>4633.687647031309</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>4633.687647031309</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>4633.687647031309</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>4379.003158825422</v>
       </c>
       <c r="W19" t="n">
-        <v>496.665036439558</v>
+        <v>4089.585988788462</v>
       </c>
       <c r="X19" t="n">
-        <v>268.6754855415407</v>
+        <v>3861.596437890445</v>
       </c>
       <c r="Y19" t="n">
-        <v>268.6754855415407</v>
+        <v>3640.803858746915</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5777,19 +5777,19 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>138.7081686256434</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>138.7081686256434</v>
+        <v>925.0175389732678</v>
       </c>
       <c r="M21" t="n">
-        <v>907.0763150181049</v>
+        <v>1693.385685365729</v>
       </c>
       <c r="N21" t="n">
-        <v>1711.487893282256</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.951654584915</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P21" t="n">
-        <v>2585.974135367124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3855.296940664493</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="C22" t="n">
-        <v>3686.360757736586</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D22" t="n">
-        <v>3536.24411832425</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916679</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380589</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625201</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491669</v>
+        <v>1298.99626047345</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281175</v>
+        <v>1075.210845262956</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494733</v>
+        <v>1075.210845262956</v>
       </c>
       <c r="V22" t="n">
-        <v>4036.945405494733</v>
+        <v>820.5263570570688</v>
       </c>
       <c r="W22" t="n">
-        <v>4036.945405494733</v>
+        <v>820.5263570570688</v>
       </c>
       <c r="X22" t="n">
-        <v>4036.945405494733</v>
+        <v>820.5263570570688</v>
       </c>
       <c r="Y22" t="n">
-        <v>4036.945405494733</v>
+        <v>820.5263570570688</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5978,19 +5978,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704856</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>618.8589595388348</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1387.227105931296</v>
+        <v>798.2070652606849</v>
       </c>
       <c r="N24" t="n">
-        <v>2122.782055165496</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O24" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4055.216950748941</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C25" t="n">
-        <v>4055.216950748941</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D25" t="n">
-        <v>4055.216950748941</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>4036.173262924875</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426964</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4236.865415579181</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>4236.865415579181</v>
+        <v>1214.875830352495</v>
       </c>
       <c r="W25" t="n">
-        <v>4236.865415579181</v>
+        <v>1214.875830352495</v>
       </c>
       <c r="X25" t="n">
-        <v>4236.865415579181</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="Y25" t="n">
-        <v>4236.865415579181</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>368.6712744939926</v>
       </c>
       <c r="M27" t="n">
-        <v>1595.645765494011</v>
+        <v>1137.039420886454</v>
       </c>
       <c r="N27" t="n">
-        <v>1925.508393158044</v>
+        <v>1941.450999150605</v>
       </c>
       <c r="O27" t="n">
-        <v>2205.048458376741</v>
+        <v>2190.204413234567</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1029.666285013068</v>
+        <v>4241.186579017401</v>
       </c>
       <c r="C28" t="n">
-        <v>860.7301020851612</v>
+        <v>4072.250396089493</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728254</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>3774.220663094764</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>4422.83504384764</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>4422.83504384764</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>4422.83504384764</v>
       </c>
       <c r="X28" t="n">
-        <v>1432.107328986838</v>
+        <v>4422.83504384764</v>
       </c>
       <c r="Y28" t="n">
-        <v>1211.314749843308</v>
+        <v>4422.83504384764</v>
       </c>
     </row>
     <row r="29">
@@ -6440,67 +6440,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028655</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>2649.889045452864</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>2922.890767221248</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>3691.25891361371</v>
       </c>
       <c r="N30" t="n">
-        <v>2107.322705390779</v>
+        <v>3691.25891361371</v>
       </c>
       <c r="O30" t="n">
-        <v>2386.862770609477</v>
+        <v>4360.722674916369</v>
       </c>
       <c r="P30" t="n">
-        <v>2591.885251391686</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6646,25 +6646,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>1297.535630674993</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324571</v>
+        <v>1297.535630674993</v>
       </c>
       <c r="W31" t="n">
-        <v>130.9054447954965</v>
+        <v>1008.118460638033</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6695,13 +6695,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6719,28 +6719,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614725</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>2771.824048372322</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292012</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556162</v>
+        <v>1478.840140721312</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774859</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4503.13917884751</v>
+        <v>4040.160816087028</v>
       </c>
       <c r="C34" t="n">
-        <v>4334.202995919603</v>
+        <v>3871.224633159121</v>
       </c>
       <c r="D34" t="n">
-        <v>4184.086356507268</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924875</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426964</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746785</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T34" t="n">
-        <v>4503.13917884751</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U34" t="n">
-        <v>4503.13917884751</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V34" t="n">
-        <v>4503.13917884751</v>
+        <v>4442.601860060798</v>
       </c>
       <c r="W34" t="n">
-        <v>4503.13917884751</v>
+        <v>4442.601860060798</v>
       </c>
       <c r="X34" t="n">
-        <v>4503.13917884751</v>
+        <v>4442.601860060798</v>
       </c>
       <c r="Y34" t="n">
-        <v>4503.13917884751</v>
+        <v>4221.809280917268</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.4883010574484</v>
+        <v>264.0657286834809</v>
       </c>
       <c r="L36" t="n">
-        <v>534.2534289639125</v>
+        <v>877.9627984403695</v>
       </c>
       <c r="M36" t="n">
-        <v>854.5887484936143</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N36" t="n">
-        <v>1659.000326757765</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O36" t="n">
-        <v>2328.464088060424</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>395.2468244550147</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="C37" t="n">
-        <v>395.2468244550147</v>
+        <v>3858.688093057096</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>3708.57145364476</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>3708.57145364476</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324571</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W37" t="n">
-        <v>395.2468244550147</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="X37" t="n">
-        <v>395.2468244550147</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="Y37" t="n">
-        <v>395.2468244550147</v>
+        <v>4027.624275985003</v>
       </c>
     </row>
     <row r="38">
@@ -7175,7 +7175,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,13 +7184,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704856</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L39" t="n">
-        <v>618.8589595388348</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M39" t="n">
-        <v>939.1942790685366</v>
+        <v>813.8367190106992</v>
       </c>
       <c r="N39" t="n">
-        <v>1559.410052240715</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.9054447954965</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C40" t="n">
-        <v>130.9054447954965</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>130.9054447954965</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1191.672887259296</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>936.9883990534095</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954965</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="X40" t="n">
-        <v>130.9054447954965</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.9054447954965</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7403,13 +7403,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K42" t="n">
-        <v>264.0657286834808</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="L42" t="n">
-        <v>877.9627984403694</v>
+        <v>2948.395228855329</v>
       </c>
       <c r="M42" t="n">
-        <v>1646.330944832831</v>
+        <v>3255.715362135291</v>
       </c>
       <c r="N42" t="n">
-        <v>1990.851600470449</v>
+        <v>3660.460177878586</v>
       </c>
       <c r="O42" t="n">
-        <v>2360.905457152158</v>
+        <v>4329.923939181245</v>
       </c>
       <c r="P42" t="n">
-        <v>2543.548934765509</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.9563154684962</v>
+        <v>4391.604587469457</v>
       </c>
       <c r="C43" t="n">
-        <v>392.0201325405893</v>
+        <v>4222.66840454155</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>4072.551765129214</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>3924.638671546821</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>4573.253052299697</v>
       </c>
       <c r="V43" t="n">
-        <v>788.9458663665135</v>
+        <v>4573.253052299697</v>
       </c>
       <c r="W43" t="n">
-        <v>788.9458663665135</v>
+        <v>4573.253052299697</v>
       </c>
       <c r="X43" t="n">
-        <v>560.9563154684962</v>
+        <v>4573.253052299697</v>
       </c>
       <c r="Y43" t="n">
-        <v>560.9563154684962</v>
+        <v>4573.253052299697</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7628,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7670,10 +7670,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K45" t="n">
-        <v>232.333204354932</v>
+        <v>2626.176921308641</v>
       </c>
       <c r="L45" t="n">
-        <v>479.098332261396</v>
+        <v>3135.782482874064</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>3456.117802403766</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>4260.529380667916</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>4260.529380667916</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>4780.830002403663</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829216</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347408</v>
+        <v>831.5539419898857</v>
       </c>
       <c r="W46" t="n">
-        <v>1194.613602254709</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="X46" t="n">
-        <v>966.6240513566914</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.8314722131613</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
   </sheetData>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>85.41885691397002</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,10 +9018,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>161.661626167781</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>3.862473343073873</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>273.6306446121661</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>26.50160996153568</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>358.0115042837433</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>387.8344207595197</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11139,16 +11139,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>75.63857381743657</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>77.06777566241345</v>
+        <v>145.4314589879188</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>98.82970090798455</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>138.4741109944285</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.088170041495</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>82.98990566424223</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>35.45839484516557</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>70.11612548307376</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>127.5807117007432</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>192.485168578864</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,10 +24652,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>74.14557958198037</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>159.5688032336831</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,7 +24856,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>196.8348713182899</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>175.2944832206708</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>59.61501855825711</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,16 +25312,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>8.918394356398409</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25330,7 +25330,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>261.697965862923</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.6139639913467</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25840,16 +25840,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>223.0594079495165</v>
       </c>
       <c r="V43" t="n">
-        <v>57.05185663131968</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26077,19 +26077,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>209.1982039022508</v>
       </c>
       <c r="W46" t="n">
-        <v>206.8109177748187</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="13">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117849</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
@@ -26323,37 +26323,37 @@
         <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590218</v>
       </c>
       <c r="H2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="I2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="J2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="I2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590215</v>
-      </c>
       <c r="K2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="L2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="L2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="N2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="O2" t="n">
+        <v>508337.7776590219</v>
+      </c>
+      <c r="P2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590213</v>
-      </c>
-      <c r="P2" t="n">
-        <v>508337.7776590217</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="F4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758693</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-278208.9460467888</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.9331677562</v>
+        <v>311758.9331677564</v>
       </c>
       <c r="D6" t="n">
-        <v>311758.933167756</v>
+        <v>311758.9331677558</v>
       </c>
       <c r="E6" t="n">
-        <v>-109597.3784571669</v>
+        <v>-109597.3784571672</v>
       </c>
       <c r="F6" t="n">
+        <v>415562.6580197291</v>
+      </c>
+      <c r="G6" t="n">
+        <v>415562.6580197293</v>
+      </c>
+      <c r="H6" t="n">
+        <v>415562.6580197293</v>
+      </c>
+      <c r="I6" t="n">
+        <v>415562.6580197291</v>
+      </c>
+      <c r="J6" t="n">
+        <v>239139.4388271362</v>
+      </c>
+      <c r="K6" t="n">
+        <v>415562.6580197291</v>
+      </c>
+      <c r="L6" t="n">
         <v>415562.6580197292</v>
-      </c>
-      <c r="G6" t="n">
-        <v>415562.6580197294</v>
-      </c>
-      <c r="H6" t="n">
-        <v>415562.6580197292</v>
-      </c>
-      <c r="I6" t="n">
-        <v>415562.658019729</v>
-      </c>
-      <c r="J6" t="n">
-        <v>239139.4388271361</v>
-      </c>
-      <c r="K6" t="n">
-        <v>415562.6580197292</v>
-      </c>
-      <c r="L6" t="n">
-        <v>415562.6580197291</v>
       </c>
       <c r="M6" t="n">
         <v>280761.642785892</v>
       </c>
       <c r="N6" t="n">
+        <v>415562.6580197292</v>
+      </c>
+      <c r="O6" t="n">
+        <v>415562.6580197294</v>
+      </c>
+      <c r="P6" t="n">
         <v>415562.6580197291</v>
-      </c>
-      <c r="O6" t="n">
-        <v>415562.6580197288</v>
-      </c>
-      <c r="P6" t="n">
-        <v>415562.6580197292</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52.29215994072536</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>235.7598711030121</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.2681133594814</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>178.2270277644633</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>242.8205265202439</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>245.6307695159926</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>48.28468750910821</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>6.77272740419798</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>287.6067095143169</v>
       </c>
       <c r="I8" t="n">
-        <v>18.40509327101739</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>130.8873428867249</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>16.39642322652776</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-2.147365782211761e-12</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.43447689993485</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>132.9984977071302</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993531</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,19 +31838,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>274.3223610901632</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>179.5630321766693</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31859,16 +31859,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32075,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>232.4121821352565</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,19 +32312,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>198.3407156868618</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32333,16 +32333,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,19 +32543,19 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,13 +32564,13 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
-        <v>177.9609357112881</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>143.9961550170332</v>
       </c>
       <c r="N24" t="n">
-        <v>394.9841349460421</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,25 +33023,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>258.6366596200708</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33281,16 +33281,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>171.9901114440537</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,19 +33497,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>396.5537155454421</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33521,13 +33521,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,10 +33734,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0333656862784</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
@@ -33746,25 +33746,25 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,10 +33971,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -33983,25 +33983,25 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>278.4799167015759</v>
+        <v>310.4742044432289</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,16 +34138,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>122.5256995936836</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>232.4121821352565</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>282.4671269667409</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279169</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>136.4809221158042</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>411.8489977002543</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>94.57074316089751</v>
+        <v>235.9942955019092</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>60.49927671250279</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>472.0860032182474</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>253.1201782990981</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.97916162526658</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799241</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718702</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>1.862121095014875</v>
       </c>
       <c r="N24" t="n">
-        <v>742.9847972062623</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>124.6622522057406</v>
+        <v>139.6562371978358</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>275.75931491756</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.0083373580322</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734237</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>640.3752065248515</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>24.19192671191943</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>245.7003868375014</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,19 +37631,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>626.4805789617961</v>
+        <v>658.4748667034492</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>408.8331472154495</v>
       </c>
       <c r="O42" t="n">
-        <v>373.7917744259687</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>94.57074316089751</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>514.7530924903259</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2084967.651894208</v>
+        <v>2160497.321559013</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1190652.103231223</v>
+        <v>1297548.354605173</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>178.0242989177829</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>89.45482406992606</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>93.47079622669342</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>46.80807769362092</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>109.0522721046904</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>177.2926684532968</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>41.14583500121408</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>107.8862013326869</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>36.31606325004019</v>
+        <v>307.1861186321487</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>43.31785343913986</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>81.25819606329402</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1579,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>106.7061843359092</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>99.0911090756187</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.97444673955056</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>14.73664328357187</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.3735853367717</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>128.8176033496193</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2333,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2476,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>52.09082459045901</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>59.652474744964</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.25307783771938</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2728,10 +2730,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>212.091772816597</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>116.5605274488292</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2998,25 +3000,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>89.40248108028744</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>143.3158222056524</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>192.5226247655709</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>136.5026536665328</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>111.8652689647489</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.7660731567842</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.62338840723066</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>63.17794444906085</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>204.129165153206</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4138,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4192,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>42.93943942157717</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1542.271337979254</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C2" t="n">
-        <v>1542.271337979254</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
-        <v>1184.005639372503</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>798.217386774259</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>387.2314819846515</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2606.790682866782</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2606.790682866782</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2353.028897504873</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>2353.028897504873</v>
       </c>
       <c r="W2" t="n">
-        <v>2302.336936304455</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="X2" t="n">
-        <v>1928.871178043375</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="Y2" t="n">
-        <v>1928.871178043375</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,7 +4412,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4437,19 +4439,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.8480976472212</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="C4" t="n">
-        <v>680.8480976472212</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="D4" t="n">
-        <v>530.7314582348854</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>680.8480976472212</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>680.8480976472212</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>680.8480976472212</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>680.8480976472212</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>680.8480976472212</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>680.8480976472212</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.203741822952</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.24122488254</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861747</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862885</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862885</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862885</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245968</v>
+        <v>289.0740493317991</v>
       </c>
       <c r="C7" t="n">
-        <v>344.9043780966899</v>
+        <v>289.0740493317991</v>
       </c>
       <c r="D7" t="n">
-        <v>344.9043780966899</v>
+        <v>289.0740493317991</v>
       </c>
       <c r="E7" t="n">
-        <v>344.9043780966899</v>
+        <v>141.160955749406</v>
       </c>
       <c r="F7" t="n">
-        <v>344.9043780966899</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>344.9043780966899</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245968</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245968</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245968</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245968</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245968</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245968</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245968</v>
+        <v>470.7225141620388</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>919.5755868835429</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>919.5755868835429</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D8" t="n">
-        <v>919.5755868835429</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>919.5755868835429</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="F8" t="n">
-        <v>508.5896820939353</v>
+        <v>782.1957986415198</v>
       </c>
       <c r="G8" t="n">
-        <v>90.62587399212219</v>
+        <v>364.2319905397067</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473039</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129469</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859355</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859355</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.5755868835429</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>646.0499982839149</v>
+        <v>97.69838933464715</v>
       </c>
       <c r="C10" t="n">
-        <v>646.0499982839149</v>
+        <v>97.69838933464715</v>
       </c>
       <c r="D10" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>646.0499982839149</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>646.0499982839149</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>646.0499982839149</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>646.0499982839149</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>646.0499982839149</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>646.0499982839149</v>
+        <v>500.139433308417</v>
       </c>
       <c r="Y10" t="n">
-        <v>646.0499982839149</v>
+        <v>279.3468541648868</v>
       </c>
     </row>
     <row r="11">
@@ -5036,19 +5038,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5106,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="L12" t="n">
-        <v>796.6263613937374</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.946494673699</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.809122337732</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.272883640391</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.2811958984813</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705744</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
         <v>527.3450129705744</v>
@@ -5194,7 +5196,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5227,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1167.346830765682</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>877.929660728721</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>877.929660728721</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>877.929660728721</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5269,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>330.851444007176</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>560.8145498755251</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M15" t="n">
-        <v>1329.182696267987</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N15" t="n">
-        <v>1673.703351905604</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O15" t="n">
-        <v>2343.167113208264</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>843.1711433963917</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>674.2349604684848</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
         <v>674.2349604684848</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1287.749137750416</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1063.963722539922</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1063.963722539922</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1063.963722539922</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>1063.963722539922</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>1063.963722539922</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>843.1711433963917</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.505047571597</v>
+        <v>698.9859206278409</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.870190757661</v>
+        <v>1019.321240157543</v>
       </c>
       <c r="N18" t="n">
         <v>1823.732818421694</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3459.155393916675</v>
+        <v>3926.121309839311</v>
       </c>
       <c r="C19" t="n">
-        <v>3459.155393916675</v>
+        <v>3757.185126911404</v>
       </c>
       <c r="D19" t="n">
-        <v>3459.155393916675</v>
+        <v>3607.068487499069</v>
       </c>
       <c r="E19" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F19" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R19" t="n">
-        <v>4833.607657115756</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S19" t="n">
-        <v>4633.687647031309</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T19" t="n">
-        <v>4633.687647031309</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U19" t="n">
-        <v>4633.687647031309</v>
+        <v>4845.969074748059</v>
       </c>
       <c r="V19" t="n">
-        <v>4379.003158825422</v>
+        <v>4845.969074748059</v>
       </c>
       <c r="W19" t="n">
-        <v>4089.585988788462</v>
+        <v>4556.551904711098</v>
       </c>
       <c r="X19" t="n">
-        <v>3861.596437890445</v>
+        <v>4328.562353813081</v>
       </c>
       <c r="Y19" t="n">
-        <v>3640.803858746915</v>
+        <v>4107.769774669551</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5747,49 +5749,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L21" t="n">
-        <v>925.0175389732678</v>
+        <v>566.2312347186191</v>
       </c>
       <c r="M21" t="n">
-        <v>1693.385685365729</v>
+        <v>1334.599381111081</v>
       </c>
       <c r="N21" t="n">
-        <v>2023.248313029762</v>
+        <v>2139.010959375231</v>
       </c>
       <c r="O21" t="n">
-        <v>2023.248313029762</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="P21" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>674.6944526764913</v>
+        <v>804.3537517307267</v>
       </c>
       <c r="C22" t="n">
-        <v>505.7582697485844</v>
+        <v>804.3537517307267</v>
       </c>
       <c r="D22" t="n">
-        <v>355.6416303362487</v>
+        <v>804.3537517307267</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.99626047345</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262956</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.210845262956</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570688</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W22" t="n">
-        <v>820.5263570570688</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X22" t="n">
-        <v>820.5263570570688</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="Y22" t="n">
-        <v>820.5263570570688</v>
+        <v>986.0022165609664</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,31 +6010,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,28 +6056,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="M24" t="n">
-        <v>798.2070652606849</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N24" t="n">
         <v>1128.069692924718</v>
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.4452354807079</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>415.509052552801</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
         <v>265.3924131404652</v>
@@ -6136,13 +6138,13 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1446.299276022085</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1246.379265937637</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1246.379265937637</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>957.2506271511957</v>
       </c>
       <c r="V25" t="n">
-        <v>1214.875830352495</v>
+        <v>957.2506271511957</v>
       </c>
       <c r="W25" t="n">
-        <v>1214.875830352495</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X25" t="n">
-        <v>986.8862794544777</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y25" t="n">
-        <v>766.0937003109476</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6205,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,22 +6253,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K27" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="L27" t="n">
-        <v>368.6712744939926</v>
+        <v>3114.716431007691</v>
       </c>
       <c r="M27" t="n">
-        <v>1137.039420886454</v>
+        <v>3422.036564287653</v>
       </c>
       <c r="N27" t="n">
-        <v>1941.450999150605</v>
+        <v>3751.899191951686</v>
       </c>
       <c r="O27" t="n">
-        <v>2190.204413234567</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4241.186579017401</v>
+        <v>4503.139178847509</v>
       </c>
       <c r="C28" t="n">
-        <v>4072.250396089493</v>
+        <v>4334.202995919602</v>
       </c>
       <c r="D28" t="n">
-        <v>3922.133756677158</v>
+        <v>4184.086356507267</v>
       </c>
       <c r="E28" t="n">
-        <v>3774.220663094764</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596854</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
         <v>3459.155393916675</v>
@@ -6406,28 +6408,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U28" t="n">
-        <v>4422.83504384764</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V28" t="n">
-        <v>4422.83504384764</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="W28" t="n">
-        <v>4422.83504384764</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="X28" t="n">
-        <v>4422.83504384764</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="Y28" t="n">
-        <v>4422.83504384764</v>
+        <v>4549.85945949167</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6442,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028655</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250804</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>2649.889045452864</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L30" t="n">
-        <v>2922.890767221248</v>
+        <v>3525.606699852205</v>
       </c>
       <c r="M30" t="n">
-        <v>3691.25891361371</v>
+        <v>4293.974846244666</v>
       </c>
       <c r="N30" t="n">
-        <v>3691.25891361371</v>
+        <v>4780.830002403663</v>
       </c>
       <c r="O30" t="n">
-        <v>4360.722674916369</v>
+        <v>4780.830002403663</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698579</v>
+        <v>4780.830002403663</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014293</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>377.6878657662453</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C31" t="n">
-        <v>208.7516828383384</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6646,25 +6648,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1297.535630674993</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V31" t="n">
-        <v>1297.535630674993</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W31" t="n">
-        <v>1008.118460638033</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X31" t="n">
-        <v>780.1289097400152</v>
+        <v>964.135741824786</v>
       </c>
       <c r="Y31" t="n">
-        <v>559.336330596485</v>
+        <v>964.135741824786</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6695,55 +6697,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,19 +6788,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="M33" t="n">
-        <v>674.4285624571609</v>
+        <v>1442.796708849623</v>
       </c>
       <c r="N33" t="n">
-        <v>1478.840140721312</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4040.160816087028</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="C34" t="n">
-        <v>3871.224633159121</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="D34" t="n">
-        <v>3721.107993746786</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="E34" t="n">
-        <v>3721.107993746786</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="F34" t="n">
-        <v>3721.107993746786</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746786</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294729</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014293</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U34" t="n">
-        <v>4637.069157803799</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V34" t="n">
-        <v>4442.601860060798</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="W34" t="n">
-        <v>4442.601860060798</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="X34" t="n">
-        <v>4442.601860060798</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="Y34" t="n">
-        <v>4221.809280917268</v>
+        <v>3603.918850690061</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6938,7 +6940,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>264.0657286834809</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L36" t="n">
-        <v>877.9627984403695</v>
+        <v>684.1208130436055</v>
       </c>
       <c r="M36" t="n">
-        <v>1121.206181409496</v>
+        <v>1452.488959436067</v>
       </c>
       <c r="N36" t="n">
-        <v>1465.726837047114</v>
+        <v>2256.900537700218</v>
       </c>
       <c r="O36" t="n">
-        <v>2135.190598349773</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4027.624275985003</v>
+        <v>379.1484955647068</v>
       </c>
       <c r="C37" t="n">
-        <v>3858.688093057096</v>
+        <v>210.2123126367999</v>
       </c>
       <c r="D37" t="n">
-        <v>3708.57145364476</v>
+        <v>210.2123126367999</v>
       </c>
       <c r="E37" t="n">
-        <v>3708.57145364476</v>
+        <v>210.2123126367999</v>
       </c>
       <c r="F37" t="n">
-        <v>3570.689985294727</v>
+        <v>210.2123126367999</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>4571.72593422785</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>4317.041446021964</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W37" t="n">
-        <v>4027.624275985003</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X37" t="n">
-        <v>4027.624275985003</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y37" t="n">
-        <v>4027.624275985003</v>
+        <v>560.7969603949465</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7153,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7254,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>263.5382936126482</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>493.5013994809973</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M39" t="n">
-        <v>813.8367190106992</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N39" t="n">
-        <v>1465.726837047114</v>
+        <v>1283.714934706155</v>
       </c>
       <c r="O39" t="n">
-        <v>2135.190598349773</v>
+        <v>1953.178696008814</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>245.130185042679</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>233.3444380833002</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7360,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1191.672887259296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>936.9883990534095</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>647.5712290164488</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X40" t="n">
-        <v>647.5712290164488</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y40" t="n">
-        <v>426.7786498729187</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7408,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7430,10 +7432,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2334.498159098441</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2334.498159098441</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>2948.395228855329</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>3255.715362135291</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>3660.460177878586</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O42" t="n">
-        <v>4329.923939181245</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>4850.224560916992</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4391.604587469457</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C43" t="n">
-        <v>4222.66840454155</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D43" t="n">
-        <v>4072.551765129214</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E43" t="n">
-        <v>3924.638671546821</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F43" t="n">
-        <v>3777.748724048911</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G43" t="n">
-        <v>3609.573402368731</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T43" t="n">
-        <v>4637.069157803799</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U43" t="n">
-        <v>4573.253052299697</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="V43" t="n">
-        <v>4573.253052299697</v>
+        <v>3893.336020727023</v>
       </c>
       <c r="W43" t="n">
-        <v>4573.253052299697</v>
+        <v>3687.144944814694</v>
       </c>
       <c r="X43" t="n">
-        <v>4573.253052299697</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="Y43" t="n">
-        <v>4573.253052299697</v>
+        <v>3459.155393916677</v>
       </c>
     </row>
     <row r="44">
@@ -7625,25 +7627,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7670,25 +7672,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250804</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>2626.176921308641</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>3135.782482874064</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M45" t="n">
-        <v>3456.117802403766</v>
+        <v>967.0546881959771</v>
       </c>
       <c r="N45" t="n">
-        <v>4260.529380667916</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O45" t="n">
-        <v>4260.529380667916</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P45" t="n">
-        <v>4780.830002403663</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>874.927113122792</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>831.5539419898857</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>542.1367719529251</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8304,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451766</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>324.5711212852632</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>85.41885691397002</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,13 +9248,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>190.5883829381096</v>
       </c>
       <c r="M18" t="n">
-        <v>161.661626167781</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,28 +9482,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3.862473343073873</v>
+        <v>56.49274060556246</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9951,25 +9953,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>14.14674423479573</v>
       </c>
       <c r="P27" t="n">
-        <v>273.6306446121661</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>26.50160996153568</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>158.5783116110745</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10434,19 +10436,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>333.9530779057939</v>
       </c>
       <c r="O33" t="n">
-        <v>358.0115042837433</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>175.5731227520133</v>
       </c>
       <c r="M36" t="n">
-        <v>387.8344207595197</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10923,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11142,19 +11144,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>75.63857381743657</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,16 +11390,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>145.4314589879188</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>98.82970090798455</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>82.98990566424223</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>271.5007091150055</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.45839484516557</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>17.61635929694984</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>57.87352781333378</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>192.485168578864</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.5789023442179</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>74.14557958198037</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>63.27145273310806</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>196.8348713182899</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>5.598006161883774</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>59.61501855825711</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>8.918394356398409</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>54.62829949862872</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>14.14775521075197</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25600,19 +25602,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.6139639913467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>223.0594079495165</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338497</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26026,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>209.1982039022508</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117849</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590216</v>
@@ -26329,31 +26331,31 @@
         <v>508337.7776590218</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="J2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="K2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="L2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="L2" t="n">
-        <v>508337.7776590217</v>
-      </c>
       <c r="M2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="P2" t="n">
         <v>508337.7776590219</v>
-      </c>
-      <c r="P2" t="n">
-        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,31 +26423,31 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758694</v>
@@ -26454,10 +26456,10 @@
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.9460467888</v>
+        <v>-278208.9460467887</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.9331677564</v>
+        <v>311758.9331677558</v>
       </c>
       <c r="D6" t="n">
-        <v>311758.9331677558</v>
+        <v>311758.9331677562</v>
       </c>
       <c r="E6" t="n">
-        <v>-109597.3784571672</v>
+        <v>-109597.378457167</v>
       </c>
       <c r="F6" t="n">
         <v>415562.6580197291</v>
       </c>
       <c r="G6" t="n">
+        <v>415562.6580197291</v>
+      </c>
+      <c r="H6" t="n">
+        <v>415562.6580197292</v>
+      </c>
+      <c r="I6" t="n">
         <v>415562.6580197293</v>
       </c>
-      <c r="H6" t="n">
-        <v>415562.6580197293</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>239139.4388271363</v>
+      </c>
+      <c r="K6" t="n">
+        <v>415562.658019729</v>
+      </c>
+      <c r="L6" t="n">
         <v>415562.6580197291</v>
-      </c>
-      <c r="J6" t="n">
-        <v>239139.4388271362</v>
-      </c>
-      <c r="K6" t="n">
-        <v>415562.6580197291</v>
-      </c>
-      <c r="L6" t="n">
-        <v>415562.6580197292</v>
       </c>
       <c r="M6" t="n">
         <v>280761.642785892</v>
       </c>
       <c r="N6" t="n">
-        <v>415562.6580197292</v>
+        <v>415562.6580197291</v>
       </c>
       <c r="O6" t="n">
+        <v>415562.6580197291</v>
+      </c>
+      <c r="P6" t="n">
         <v>415562.6580197294</v>
-      </c>
-      <c r="P6" t="n">
-        <v>415562.6580197291</v>
       </c>
     </row>
   </sheetData>
@@ -26738,22 +26740,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>235.7598711030121</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>84.96088873904547</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>55.14467679151893</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>178.2270277644633</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>245.6307695159926</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27670,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>150.4595900168381</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>104.2752130217172</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>48.28468750910821</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>287.6067095143169</v>
+        <v>16.7366541322084</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>105.2976195790725</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>130.8873428867249</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,10 +31120,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
@@ -31130,10 +31132,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31297,25 +31299,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993531</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,19 +31840,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>179.5630321766693</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31859,16 +31861,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32087,19 +32089,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>106.5672573837438</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,16 +32791,16 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>143.9961550170332</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>228.4763109920281</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -33026,10 +33028,10 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724846</v>
@@ -33038,10 +33040,10 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33272,16 +33274,16 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33506,22 +33508,22 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33661,7 +33663,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565519</v>
@@ -33737,22 +33739,22 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33974,7 +33976,7 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -33983,13 +33985,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>310.4742044432289</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>194.5877923618784</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34144,7 +34146,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
@@ -34208,10 +34210,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
@@ -34220,7 +34222,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>397.7942040974357</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34229,7 +34231,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34390,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
         <v>76.0697047810465</v>
@@ -34445,25 +34447,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>282.4671269667409</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>322.7668397349901</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279169</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>411.8489977002543</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>657.765694683276</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>235.9942955019092</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35735,19 +35737,19 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>454.567919643964</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>439.846087894134</v>
       </c>
       <c r="M18" t="n">
-        <v>472.0860032182474</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>253.1201782990981</v>
+        <v>305.7504455615868</v>
       </c>
       <c r="M21" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718702</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.862121095014875</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>97.13459890869484</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178377</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>296.5104464759039</v>
       </c>
       <c r="P27" t="n">
-        <v>139.6562371978358</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36911,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>275.75931491756</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>491.7728850090875</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>667.1476513038068</v>
       </c>
       <c r="O33" t="n">
-        <v>640.3752065248515</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221117</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>424.8308277080376</v>
       </c>
       <c r="M36" t="n">
-        <v>245.7003868375014</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37622,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,19 +37633,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>658.4748667034492</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>379.0761535874853</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>408.8331472154495</v>
+        <v>745.7948663576559</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686865</v>
@@ -38035,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>514.7530924903259</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>646.3378695629717</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2160497.321559013</v>
+        <v>2153480.306667301</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1297548.354605173</v>
+        <v>603896.1316733661</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>148.1704875357939</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>89.45482406992606</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>93.47079622669342</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>68.14130809906142</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>177.2926684532968</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>41.14583500121408</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>177.9498744325403</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>307.1861186321487</v>
+        <v>118.8460297402138</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D10" t="n">
-        <v>43.31785343913986</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>253.1361467692725</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>17.93359706704276</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>101.5008511078726</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>14.73664328357187</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>128.8176033496193</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>110.0642909656595</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>121.6872846616449</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>52.09082459045901</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.25307783771938</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>122.65197883716</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>116.5605274488292</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>87.80122484518718</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>68.02393963678962</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>143.3158222056524</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>68.79938215950349</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>111.8652689647489</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>134.7660731567842</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>25.82923535834103</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>136.9575509524583</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>204.129165153206</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1610.120910258947</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>364.0216177015429</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>364.0216177015429</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>357.0761169523394</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2606.790682866782</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2606.790682866782</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.028897504873</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.028897504873</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2000.260242234759</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>2000.260242234759</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1610.120910258947</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4415,19 +4415,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.2710210862863</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>296.2710210862863</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.919485916526</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117852</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>522.4842426204839</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>136.6959900222396</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2033.097625012799</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2033.097625012799</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1659.631866751719</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1269.492534775907</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289.0740493317991</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>289.0740493317991</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>289.0740493317991</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>141.160955749406</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.7225141620388</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1865.381229508783</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037878</v>
+        <v>1496.418712568371</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E8" t="n">
-        <v>1193.181703431127</v>
+        <v>752.3647613633761</v>
       </c>
       <c r="F8" t="n">
-        <v>782.1957986415198</v>
+        <v>341.3788565737686</v>
       </c>
       <c r="G8" t="n">
-        <v>364.2319905397067</v>
+        <v>327.4554525123595</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4810,13 +4810,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464715</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>97.69838933464715</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>500.139433308417</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648868</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5038,19 +5038,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>263.5382936126481</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="14">
@@ -5269,37 +5269,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>904.39166832551</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>1672.759814717971</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N15" t="n">
-        <v>2122.782055165496</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>698.9859206278409</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>1019.321240157543</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N18" t="n">
-        <v>1823.732818421694</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3926.121309839311</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C19" t="n">
-        <v>3757.185126911404</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="D19" t="n">
-        <v>3607.068487499069</v>
+        <v>346.6331511883706</v>
       </c>
       <c r="E19" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>4845.969074748059</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>4845.969074748059</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>4556.551904711098</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>4328.562353813081</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y19" t="n">
-        <v>4107.769774669551</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5749,55 +5749,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>566.2312347186191</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
-        <v>1334.599381111081</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N21" t="n">
-        <v>2139.010959375231</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O21" t="n">
-        <v>2418.551024593929</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>804.3537517307267</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C22" t="n">
-        <v>804.3537517307267</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>804.3537517307267</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684849</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5943,19 +5943,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>1163.954803866944</v>
       </c>
       <c r="W22" t="n">
-        <v>986.0022165609664</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X22" t="n">
-        <v>986.0022165609664</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y22" t="n">
-        <v>986.0022165609664</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5977,22 +5977,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M24" t="n">
-        <v>1031.90644000511</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>514.936581693766</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>514.936581693766</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1446.299276022085</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1246.379265937637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1246.379265937637</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>957.2506271511957</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>957.2506271511957</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W25" t="n">
-        <v>667.8334571142351</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X25" t="n">
-        <v>667.8334571142351</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.040877970705</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,19 +6211,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6232,7 +6232,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,16 +6244,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L27" t="n">
-        <v>3114.716431007691</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M27" t="n">
-        <v>3422.036564287653</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N27" t="n">
-        <v>3751.899191951686</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O27" t="n">
-        <v>4045.444533962831</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4503.139178847509</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="C28" t="n">
-        <v>4334.202995919602</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507267</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4549.85945949167</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4549.85945949167</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>4549.85945949167</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>4549.85945949167</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>4549.85945949167</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>4549.85945949167</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="29">
@@ -6460,7 +6460,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,13 +6499,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L30" t="n">
-        <v>3525.606699852205</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M30" t="n">
-        <v>4293.974846244666</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N30" t="n">
-        <v>4780.830002403663</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O30" t="n">
-        <v>4780.830002403663</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>4780.830002403663</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>846.3978353108171</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C31" t="n">
-        <v>677.4616523829102</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705744</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>964.135741824786</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>964.135741824786</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W31" t="n">
-        <v>964.135741824786</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X31" t="n">
-        <v>964.135741824786</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.135741824786</v>
+        <v>245.1301850426789</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6700,25 +6700,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M33" t="n">
-        <v>1442.796708849623</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N33" t="n">
-        <v>2103.272883640391</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3603.918850690061</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="C34" t="n">
-        <v>3603.918850690061</v>
+        <v>334.1034632786366</v>
       </c>
       <c r="D34" t="n">
-        <v>3603.918850690061</v>
+        <v>334.1034632786366</v>
       </c>
       <c r="E34" t="n">
-        <v>3603.918850690061</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>3603.918850690061</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3603.918850690061</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.020508932908</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>3893.336020727022</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W34" t="n">
-        <v>3603.918850690061</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.918850690061</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y34" t="n">
-        <v>3603.918850690061</v>
+        <v>503.0396462065435</v>
       </c>
     </row>
     <row r="35">
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7019,25 +7019,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>263.5382936126482</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="L36" t="n">
-        <v>684.1208130436055</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="M36" t="n">
-        <v>1452.488959436067</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N36" t="n">
-        <v>2256.900537700218</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
-        <v>2536.440602918915</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>379.1484955647068</v>
+        <v>912.3640997703106</v>
       </c>
       <c r="C37" t="n">
-        <v>210.2123126367999</v>
+        <v>743.4279168424038</v>
       </c>
       <c r="D37" t="n">
-        <v>210.2123126367999</v>
+        <v>593.311277430068</v>
       </c>
       <c r="E37" t="n">
-        <v>210.2123126367999</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F37" t="n">
-        <v>210.2123126367999</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V37" t="n">
-        <v>1298.996260473455</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W37" t="n">
-        <v>1009.579090436494</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X37" t="n">
-        <v>781.5895395384766</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="Y37" t="n">
-        <v>560.7969603949465</v>
+        <v>912.3640997703106</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7171,55 +7171,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L39" t="n">
-        <v>618.8589595388348</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M39" t="n">
-        <v>939.1942790685366</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N39" t="n">
-        <v>1283.714934706155</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O39" t="n">
-        <v>1953.178696008814</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.4856756861153</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C40" t="n">
-        <v>699.5494927582084</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D40" t="n">
-        <v>549.4328533458727</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E40" t="n">
-        <v>401.5197597634796</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>401.5197597634796</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>233.3444380833002</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>1270.926719659885</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.134140516355</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7426,10 +7426,10 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207831</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N42" t="n">
-        <v>2041.248044820708</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929846</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.149147719352</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4148.02050893291</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>3893.336020727023</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>3687.144944814694</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>3459.155393916677</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916677</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L45" t="n">
-        <v>327.180197328635</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M45" t="n">
-        <v>967.0546881959771</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.466266460128</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O45" t="n">
-        <v>2440.930027762787</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>324.5711212852632</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9008,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>190.5883829381096</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>56.49274060556246</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,16 +9494,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9956,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>381.5997261417976</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>14.14674423479573</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N30" t="n">
-        <v>158.5783116110745</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N33" t="n">
-        <v>333.9530779057939</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,28 +10667,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>198.568530941954</v>
       </c>
       <c r="L36" t="n">
-        <v>175.5731227520133</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11381,10 +11381,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11396,10 +11396,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>33.3868515673185</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>207.7760583219944</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>44.93311153869656</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23946,19 +23946,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>271.5007091150055</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>17.61635929694984</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037968</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>142.0733523581685</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,16 +24369,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>26.92818835656743</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.87352781333378</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.5789023442179</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>23.78198380940918</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>63.27145273310806</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>137.90843054385</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>78.41002300977955</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>5.598006161883774</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>77.63458048706568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>54.62829949862872</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25371,13 +25371,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>14.14775521075197</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25602,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>199.8804200306961</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>42.87442922947903</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>82.39383318338497</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="J2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="K2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="L2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590214</v>
-      </c>
-      <c r="L2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
         <v>508337.7776590216</v>
@@ -26355,7 +26355,7 @@
         <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590219</v>
+        <v>508337.7776590217</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="F4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
+        <v>787.7936905759103</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="M4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758697</v>
       </c>
     </row>
     <row r="5">
@@ -26478,31 +26478,31 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.9460467887</v>
+        <v>-278208.9460467891</v>
       </c>
       <c r="C6" t="n">
         <v>311758.9331677558</v>
       </c>
       <c r="D6" t="n">
-        <v>311758.9331677562</v>
+        <v>311758.933167756</v>
       </c>
       <c r="E6" t="n">
-        <v>-109597.378457167</v>
+        <v>-110571.9697168885</v>
       </c>
       <c r="F6" t="n">
-        <v>415562.6580197291</v>
+        <v>414588.0667600075</v>
       </c>
       <c r="G6" t="n">
-        <v>415562.6580197291</v>
+        <v>414588.0667600074</v>
       </c>
       <c r="H6" t="n">
-        <v>415562.6580197292</v>
+        <v>414588.0667600076</v>
       </c>
       <c r="I6" t="n">
-        <v>415562.6580197293</v>
+        <v>414588.0667600075</v>
       </c>
       <c r="J6" t="n">
-        <v>239139.4388271363</v>
+        <v>238164.8475674145</v>
       </c>
       <c r="K6" t="n">
-        <v>415562.658019729</v>
+        <v>414588.0667600075</v>
       </c>
       <c r="L6" t="n">
-        <v>415562.6580197291</v>
+        <v>414588.0667600075</v>
       </c>
       <c r="M6" t="n">
-        <v>280761.642785892</v>
+        <v>279787.0515261703</v>
       </c>
       <c r="N6" t="n">
-        <v>415562.6580197291</v>
+        <v>414588.0667600074</v>
       </c>
       <c r="O6" t="n">
-        <v>415562.6580197291</v>
+        <v>414588.0667600074</v>
       </c>
       <c r="P6" t="n">
-        <v>415562.6580197294</v>
+        <v>414588.0667600075</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26752,34 +26752,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>265.613682485001</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>84.96088873904547</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>55.14467679151893</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>338.73473764265</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>150.4595900168381</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>104.2752130217172</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>108.5731239040507</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>16.7366541322084</v>
+        <v>205.0767430241433</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D10" t="n">
-        <v>105.2976195790725</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29006,7 +29006,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -31135,7 +31135,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>132.99849770713</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31381,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516336</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31840,31 +31840,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>183.6820494557169</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -32077,31 +32077,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>106.5672573837438</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,37 +32551,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>102.4943942860912</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,19 +32788,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>228.4763109920281</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32812,13 +32812,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,19 +33025,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33049,13 +33049,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,37 +33262,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,37 +33499,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,25 +33648,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,25 +33736,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,19 +33885,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L38" t="n">
         <v>526.796267130444</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -33985,13 +33985,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>194.5877923618784</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,16 +34140,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,19 +34210,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>397.7942040974357</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34456,28 +34456,28 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>322.7668397349901</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34783,22 +34783,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>657.765694683276</v>
+        <v>531.6827117159371</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N15" t="n">
-        <v>454.567919643964</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>439.846087894134</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>305.7504455615868</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>286.9827555116981</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N24" t="n">
-        <v>97.13459890869484</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36460,7 +36460,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>239.4656922197793</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>296.5104464759039</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N30" t="n">
-        <v>491.7728850090875</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N33" t="n">
-        <v>667.1476513038068</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>60.72709196759495</v>
       </c>
       <c r="L36" t="n">
-        <v>424.8308277080376</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>379.0761535874853</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N42" t="n">
-        <v>745.7948663576559</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>646.3378695629717</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2153480.306667301</v>
+        <v>2158419.569516335</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>603896.1316733661</v>
+        <v>558474.3990778319</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>148.1704875357939</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>69.27308117145047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,13 +834,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>68.14130809906142</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>43.19563242961156</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>177.9498744325403</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H8" t="n">
-        <v>118.8460297402138</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>253.1361467692725</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>15.59458547084342</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385022</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>75.47574560926947</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>17.93359706704276</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>101.5008511078726</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>110.0642909656595</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>121.6872846616449</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>87.80122484518718</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.02393963678962</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>283.6022539429871</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.79938215950349</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>3.633341602776451</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>25.82923535834103</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>136.9575509524583</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -3918,7 +3918,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>20.211577087418</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>722.2873163082934</v>
+        <v>907.090798542223</v>
       </c>
       <c r="C2" t="n">
-        <v>722.2873163082934</v>
+        <v>907.090798542223</v>
       </c>
       <c r="D2" t="n">
-        <v>364.0216177015429</v>
+        <v>548.8250999354725</v>
       </c>
       <c r="E2" t="n">
-        <v>364.0216177015429</v>
+        <v>548.8250999354725</v>
       </c>
       <c r="F2" t="n">
-        <v>357.0761169523394</v>
+        <v>137.8391951458649</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>123.9157910844558</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>123.9157910844558</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y2" t="n">
-        <v>722.2873163082934</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4470,22 +4470,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.712458167646</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>880.7499412272343</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>522.4842426204839</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>136.6959900222396</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2653.51713906912</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2653.51713906912</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2653.51713906912</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2653.51713906912</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2322.454251725549</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1969.685596455435</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1596.219838194355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1206.080506218543</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
         <v>99.5995062532301</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="W7" t="n">
-        <v>548.3816362947775</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="X7" t="n">
-        <v>320.3920853967602</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>709.5665374816297</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508783</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.418712568371</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633761</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737686</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G8" t="n">
-        <v>327.4554525123595</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4810,46 +4810,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,46 +4880,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4941,28 +4941,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5029,28 +5029,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>794.1790493843999</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.004430061687</v>
+        <v>794.1790493843999</v>
       </c>
       <c r="N12" t="n">
-        <v>1648.370314660465</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O12" t="n">
-        <v>2317.834075963124</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>475.6246508103599</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>247.6350999123426</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.6350999123426</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,10 +5263,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,13 +5278,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5366,7 +5366,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N15" t="n">
         <v>1128.069692924718</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.130185042679</v>
+        <v>453.9259926442952</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>284.9898097163883</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X16" t="n">
-        <v>647.5712290164488</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="Y16" t="n">
-        <v>426.7786498729187</v>
+        <v>453.9259926442952</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N18" t="n">
         <v>1128.069692924718</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>496.7497906007063</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>346.6331511883706</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286132</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,34 +5731,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5770,31 +5770,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5840,7 +5840,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
-        <v>865.5852378527472</v>
+        <v>865.5852378527474</v>
       </c>
       <c r="N21" t="n">
         <v>1669.996816116898</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1163.954803866944</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>874.5376338299834</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>646.5480829319661</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,46 +5968,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6077,7 +6077,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N24" t="n">
         <v>1138.699705022018</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>514.936581693766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>514.936581693766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>696.5850465240057</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6244,16 +6244,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6293,28 +6293,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N27" t="n">
         <v>1138.699705022018</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>441.900558318119</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,28 +6530,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N30" t="n">
         <v>1128.069692924718</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.1301850426789</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C31" t="n">
-        <v>245.1301850426789</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D31" t="n">
-        <v>245.1301850426789</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>844.0280401273991</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>554.6108700904385</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>465.9227641862091</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>245.1301850426789</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,25 +6700,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N33" t="n">
         <v>1128.069692924718</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>503.0396462065435</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C34" t="n">
-        <v>334.1034632786366</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D34" t="n">
-        <v>334.1034632786366</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>1012.52933729872</v>
       </c>
       <c r="V34" t="n">
-        <v>1020.446367141521</v>
+        <v>757.8448490928333</v>
       </c>
       <c r="W34" t="n">
-        <v>731.0291971045608</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="X34" t="n">
-        <v>503.0396462065435</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y34" t="n">
-        <v>503.0396462065435</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="35">
@@ -6925,43 +6925,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,19 +7013,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>323.6581146605672</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L36" t="n">
-        <v>323.6581146605672</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N36" t="n">
         <v>1128.069692924718</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>912.3640997703106</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="C37" t="n">
-        <v>743.4279168424038</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="D37" t="n">
-        <v>593.311277430068</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="E37" t="n">
-        <v>523.8169520164281</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1133.156678913841</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>1133.156678913841</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X37" t="n">
-        <v>1133.156678913841</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y37" t="n">
-        <v>912.3640997703106</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7162,64 +7162,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
         <v>323.6581146605672</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,40 +7402,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,16 +7487,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
         <v>323.6581146605672</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>527.3450129705745</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C43" t="n">
-        <v>527.3450129705745</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705745</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705745</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705745</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X43" t="n">
-        <v>665.6859735286132</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="Y43" t="n">
-        <v>665.6859735286132</v>
+        <v>710.6134626728254</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,10 +7669,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,16 +7724,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
         <v>323.6581146605672</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7839,19 +7839,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9014,7 +9014,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>370.8623401849288</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9251,7 +9251,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>370.8623401849288</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417975</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9962,7 +9962,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417976</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10199,7 +10199,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849288</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10436,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849288</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>198.568530941954</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>370.8623401849284</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>33.3868515673185</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>202.9900678812514</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>73.13972740894289</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>207.7760583219944</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>44.93311153869656</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037968</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>142.0733523581685</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>26.92818835656743</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>23.78198380940918</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>137.90843054385</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>78.41002300977955</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>2.635098455590253</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>77.63458048706568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>141.7877064201548</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>199.8804200306961</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.87442922947903</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>205.4980783016192</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="F2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="G2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="G2" t="n">
-        <v>508337.7776590215</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
+        <v>508337.7776590219</v>
+      </c>
+      <c r="J2" t="n">
+        <v>508337.777659022</v>
+      </c>
+      <c r="K2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="J2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590216</v>
-      </c>
       <c r="L2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="M2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="N2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="O2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590217</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
@@ -26435,7 +26435,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
@@ -26447,19 +26447,19 @@
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905759103</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.9460467891</v>
+        <v>-278208.9460467888</v>
       </c>
       <c r="C6" t="n">
         <v>311758.9331677558</v>
       </c>
       <c r="D6" t="n">
-        <v>311758.933167756</v>
+        <v>311758.9331677558</v>
       </c>
       <c r="E6" t="n">
-        <v>-110571.9697168885</v>
+        <v>-109694.8375831389</v>
       </c>
       <c r="F6" t="n">
-        <v>414588.0667600075</v>
+        <v>415465.1988937571</v>
       </c>
       <c r="G6" t="n">
-        <v>414588.0667600074</v>
+        <v>415465.198893757</v>
       </c>
       <c r="H6" t="n">
-        <v>414588.0667600076</v>
+        <v>415465.198893757</v>
       </c>
       <c r="I6" t="n">
-        <v>414588.0667600075</v>
+        <v>415465.1988937572</v>
       </c>
       <c r="J6" t="n">
-        <v>238164.8475674145</v>
+        <v>239041.9797011642</v>
       </c>
       <c r="K6" t="n">
-        <v>414588.0667600075</v>
+        <v>415465.198893757</v>
       </c>
       <c r="L6" t="n">
-        <v>414588.0667600075</v>
+        <v>415465.1988937571</v>
       </c>
       <c r="M6" t="n">
-        <v>279787.0515261703</v>
+        <v>280664.1836599199</v>
       </c>
       <c r="N6" t="n">
-        <v>414588.0667600074</v>
+        <v>415465.1988937571</v>
       </c>
       <c r="O6" t="n">
-        <v>414588.0667600074</v>
+        <v>415465.1988937571</v>
       </c>
       <c r="P6" t="n">
-        <v>414588.0667600075</v>
+        <v>415465.198893757</v>
       </c>
     </row>
   </sheetData>
@@ -26749,28 +26749,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>265.613682485001</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>82.65823507341078</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>338.73473764265</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>11.28277014520014</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>10.74592769735757</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>108.5731239040507</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H8" t="n">
-        <v>205.0767430241433</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29006,7 +29006,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31132,7 +31132,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31150,7 +31150,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31381,10 +31381,10 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>149.8971812516336</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31603,7 +31603,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31618,10 +31618,10 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P9" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
@@ -31840,31 +31840,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>177.0909998440052</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>183.6820494557169</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32089,7 +32089,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32326,7 +32326,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32560,16 +32560,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>102.4943942860912</v>
+        <v>102.4943942860908</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32800,7 +32800,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33037,7 +33037,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33274,7 +33274,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33511,7 +33511,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -33748,7 +33748,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33897,7 +33897,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041499</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
         <v>526.796267130444</v>
@@ -34146,7 +34146,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540898</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946992</v>
@@ -34389,10 +34389,10 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,10 +35029,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,10 +35266,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>409.3769653675902</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>531.6827117159371</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>228.7283062629105</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35749,7 +35749,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>228.7283062629105</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -35986,7 +35986,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>286.9827555116981</v>
+        <v>286.9827555116977</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197792</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197793</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629105</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36934,7 +36934,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629105</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37171,7 +37171,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>60.72709196759495</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37408,7 +37408,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37794,7 +37794,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
